--- a/Data/EC/NIT-9013843745.xlsx
+++ b/Data/EC/NIT-9013843745.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C05C95-FF63-49AE-80AD-C4FCC37139F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F4F4C0-65D1-48BE-A1D5-50DEEE8AC225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8020BE42-FA7F-4F6E-889C-CF1FD220EEC7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB039E23-88BA-468F-9380-2BEF6D0B22C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,19 +71,19 @@
     <t>NOHORA MILENA BERRIO CRECIAN</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>73209840</t>
+  </si>
+  <si>
+    <t>ALVARO ENRIQUE MAZA CUADRO</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>73209840</t>
-  </si>
-  <si>
-    <t>ALVARO ENRIQUE MAZA CUADRO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -182,22 +182,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -397,23 +397,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,10 +441,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,7 +497,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24A286D-35B2-F3CA-59B8-C89FF43ED797}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F592A749-9EEB-B7EE-6A3B-A24E0AF31D65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7BDF01-4F88-404D-8FEB-19E5C23ED223}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD84F067-F330-4B27-BA25-A591B3C1B3BE}">
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -955,7 +955,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>410400</v>
+        <v>456000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1040,19 +1040,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>80000</v>
+        <v>72000</v>
       </c>
       <c r="G17" s="18">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>80000</v>
@@ -1086,13 +1086,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>72000</v>
@@ -1109,19 +1109,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" s="18">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="18">
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1132,16 +1132,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" s="24">
-        <v>26400</v>
+        <v>72000</v>
       </c>
       <c r="G21" s="24">
         <v>1800000</v>
